--- a/biology/Médecine/Croix-Rouge_italienne/Croix-Rouge_italienne.xlsx
+++ b/biology/Médecine/Croix-Rouge_italienne/Croix-Rouge_italienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Croix-Rouge italienne (en italien, Croce Rossa Italiana ou CRI) est la société nationale italienne de la Croix-Rouge, organisation qui a pour origine le Comitato dell'Associazione Italiana per il soccorso ai feriti ed ai malati in guerra à Milan du 15 juin 1864[1]. D'autres comités ont été formés par la suite. La Croix-Rouge italienne a été l'un des membres fondateurs de la Ligue Internationale de la Croix-Rouge en 1919[2].
+La Croix-Rouge italienne (en italien, Croce Rossa Italiana ou CRI) est la société nationale italienne de la Croix-Rouge, organisation qui a pour origine le Comitato dell'Associazione Italiana per il soccorso ai feriti ed ai malati in guerra à Milan du 15 juin 1864. D'autres comités ont été formés par la suite. La Croix-Rouge italienne a été l'un des membres fondateurs de la Ligue Internationale de la Croix-Rouge en 1919.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire de la Croix-Rouge italienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Croix-Rouge américaine a longtemps été active en Italie, en collaboration avec la Croix-Rouge italienne[3]. Ernest Hemingway a travaillé pour la Croix-Rouge américaine en Italie en 1918[4]. La Croix-Rouge américaine continue d'avoir un bureau à Naples[5].
-Pendant la guerre de Corée, l’hôpital de campagne de la Croix-Rouge Zone 68 (Ospedale da campo CRI no 68) fut envoyé en Corée pour soulager la catastrophe humanitaire[6]. L'Italie n'était pas membre de l'Organisation des Nations unies à l'époque — elle n’adhérera qu’en décembre 1955. L'hôpital de campagne est arrivé en Corée en novembre 1951 et a fourni des services médicaux pour les civils et les soldats blessés de tous les côtés. Il a finalement quitté la Corée en janvier de 1955.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Croix-Rouge américaine a longtemps été active en Italie, en collaboration avec la Croix-Rouge italienne. Ernest Hemingway a travaillé pour la Croix-Rouge américaine en Italie en 1918. La Croix-Rouge américaine continue d'avoir un bureau à Naples.
+Pendant la guerre de Corée, l’hôpital de campagne de la Croix-Rouge Zone 68 (Ospedale da campo CRI no 68) fut envoyé en Corée pour soulager la catastrophe humanitaire. L'Italie n'était pas membre de l'Organisation des Nations unies à l'époque — elle n’adhérera qu’en décembre 1955. L'hôpital de campagne est arrivé en Corée en novembre 1951 et a fourni des services médicaux pour les civils et les soldats blessés de tous les côtés. Il a finalement quitté la Corée en janvier de 1955.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Principes fondamentaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les sept principes fondamentaux de la Croix-Rouge italienne et du Mouvement international de la Croix-Rouge et du Croissant-Rouge sont les suivants[7]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les sept principes fondamentaux de la Croix-Rouge italienne et du Mouvement international de la Croix-Rouge et du Croissant-Rouge sont les suivants:
 Humanité: «La Croix-Rouge et le Croissant-Rouge international, nés d'un désir de porter secours sans discrimination aux blessés des champs de bataille, a une capacité nationale et internationale, à prévenir et à atténuer les souffrances humaines partout où c'est possible. Leur but est de protéger la vie et la santé et à assurer le respect de l'être humain. Ils favorisent la compréhension mutuelle, l'amitié, la coopération et une paix durable entre tous les peuples.»
 Impartialité : «Ils ne font aucune distinction de nationalité, de race, de religion, de classe ou d'opinions politiques. Ils cherchent à soulager la souffrance des individus, étant guidés uniquement par leurs besoins, et de donner la priorité aux cas de détresse les plus urgents.»
 Neutralité: «Afin de continuer à jouir de la confiance de tous, le Mouvement ne peut pas prendre part aux hostilités et, en tout temps, aux controverses d'ordre politique, racial, religieux ou idéologique»
@@ -581,10 +597,12 @@
           <t>Opérations courantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actuellement, la Croix-Rouge italienne a le statut d'un organisme de bienfaisance national, sous le haut patronage du Président de la République italienne. La Croix-Rouge italienne est membre de la Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge. Le docteur Massimo Barra a été élu Président de la Croix-Rouge italienne, le 11 décembre 2005 et a servi jusqu'au 30 octobre, 2008, lorsque le gouvernement italien a nommé le commissaire extraordinaire Francesco Rocca. Le 27 janvier, 2013 Francesco Rocca a été élu Président de la CRI au cours de l'Assemblée nationale de l'organisation[8].
-Les véhicules Croix-Rouge italienne portent des plaques d'immatriculation spéciales[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actuellement, la Croix-Rouge italienne a le statut d'un organisme de bienfaisance national, sous le haut patronage du Président de la République italienne. La Croix-Rouge italienne est membre de la Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge. Le docteur Massimo Barra a été élu Président de la Croix-Rouge italienne, le 11 décembre 2005 et a servi jusqu'au 30 octobre, 2008, lorsque le gouvernement italien a nommé le commissaire extraordinaire Francesco Rocca. Le 27 janvier, 2013 Francesco Rocca a été élu Président de la CRI au cours de l'Assemblée nationale de l'organisation.
+Les véhicules Croix-Rouge italienne portent des plaques d'immatriculation spéciales.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La Croix-Rouge italienne mène actuellement la stratégie 2020 promue par la Fédération internationale de la Croix-Rouge et du Croissant-Rouge[10]. L'objectif principal de ce projet est d'atteindre, au cours de cette décennie, 6 objectifs reposant sur l'analyse des besoins et vulnérabilités de la communauté. Les 6 objectifs stratégiques sont les suivants[11]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Croix-Rouge italienne mène actuellement la stratégie 2020 promue par la Fédération internationale de la Croix-Rouge et du Croissant-Rouge. L'objectif principal de ce projet est d'atteindre, au cours de cette décennie, 6 objectifs reposant sur l'analyse des besoins et vulnérabilités de la communauté. Les 6 objectifs stratégiques sont les suivants:
 Sauvegarder et protéger la santé et la vie,
 Favoriser le soutien et l'inclusion sociale,
 Préparer la communauté et répondre aux urgences et aux catastrophes,
@@ -649,14 +669,50 @@
           <t>Composants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Depuis la réforme de 2012, la Croix-Rouge italienne comporte les éléments suivants[12]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Depuis la réforme de 2012, la Croix-Rouge italienne comporte les éléments suivants:
 Corpo Militare (Ausiliario delle Forze Armate) - Corps Militaire (auxiliaire des Forces armées);
 Corpo delle Infermiere Volontarie (Ausiliarie delle Forze Armate) - infirmières volontaires (auxiliaire des Forces armées);
-Volontari della Croce Rossa Italiana (Componente Civile) - Les bénévoles de la Croix-Rouge italienne (civils).
-Source de traduction
-(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Italian Red Cross » (voir la liste des auteurs).</t>
+Volontari della Croce Rossa Italiana (Componente Civile) - Les bénévoles de la Croix-Rouge italienne (civils).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Croix-Rouge_italienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croix-Rouge_italienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Composants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Source de traduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Italian Red Cross » (voir la liste des auteurs).</t>
         </is>
       </c>
     </row>
